--- a/Documents/十五音教材/聲調對照表.xlsx
+++ b/Documents/十五音教材/聲調對照表.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\Documents\十五音教材\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8898B04-E914-485D-8EC4-84A76A529022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0175019-E9B7-4523-BEB9-83A48DBD9BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-195" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{08BCE876-220B-4617-985F-BC533BEFAD68}"/>
   </bookViews>
   <sheets>
     <sheet name="聲調對照表" sheetId="1" r:id="rId1"/>
-    <sheet name="聲調對照表 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="聲調對照表 (3)" sheetId="3" r:id="rId2"/>
+    <sheet name="聲調對照表 (2)" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="十五音韻母">'[1]十五音-韻母'!$C$5:$C$54</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="45">
   <si>
     <t>˙</t>
   </si>
@@ -542,12 +543,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,6 +580,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13044,10 +13045,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="25.5">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="14" t="s">
         <v>32</v>
       </c>
@@ -13289,11 +13290,273 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1050C03-4A49-40F3-8140-C9DAF6B05C63}">
+  <dimension ref="B2:I18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="25.5">
+      <c r="B2" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="65.25">
+      <c r="B3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="16" t="str">
+        <f xml:space="preserve"> "tong" &amp; H3</f>
+        <v>tong1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="7">
+        <v>44</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="65.25">
+      <c r="B4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="17" t="str">
+        <f t="shared" ref="C4:C7" si="0" xml:space="preserve"> "tong" &amp; H4</f>
+        <v>tong7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="65.25">
+      <c r="B5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>tong3</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7">
+        <v>21</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="65.25">
+      <c r="B6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="17" t="str">
+        <f xml:space="preserve"> "tong" &amp; H6</f>
+        <v>tong2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="65.25">
+      <c r="B7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>tong5</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="65.25">
+      <c r="B8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="65.25">
+      <c r="B9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>121</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>8</v>
+      </c>
+      <c r="I9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="57.75" outlineLevel="1">
+      <c r="B18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11" t="str">
+        <f xml:space="preserve"> "dong" &amp; H18</f>
+        <v>dong6</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10">
+        <v>53</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="10">
+        <v>6</v>
+      </c>
+      <c r="I18" s="9">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1566D659-7E1D-42E7-9495-78EC72F6C0D2}">
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
@@ -13307,10 +13570,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="25.5">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="14" t="s">
         <v>32</v>
       </c>
@@ -13337,7 +13600,7 @@
       <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="31" t="str">
+      <c r="C3" s="29" t="str">
         <f xml:space="preserve"> "tong" &amp; I3</f>
         <v>tong1</v>
       </c>
@@ -13347,19 +13610,19 @@
       <c r="E3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="31">
         <v>44</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="24">
         <v>1</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="24">
         <v>1</v>
       </c>
     </row>
@@ -13367,7 +13630,7 @@
       <c r="B4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="32" t="str">
+      <c r="C4" s="30" t="str">
         <f t="shared" ref="C4:C7" si="0" xml:space="preserve"> "tong" &amp; I4</f>
         <v>tong7</v>
       </c>
@@ -13377,19 +13640,19 @@
       <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="32">
         <v>22</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="25">
         <v>7</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="25">
         <v>6</v>
       </c>
     </row>
@@ -13397,7 +13660,7 @@
       <c r="B5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="31" t="str">
+      <c r="C5" s="29" t="str">
         <f t="shared" si="0"/>
         <v>tong3</v>
       </c>
@@ -13407,19 +13670,19 @@
       <c r="E5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="31">
         <v>21</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="24">
         <v>3</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="24">
         <v>5</v>
       </c>
     </row>
@@ -13427,7 +13690,7 @@
       <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="32" t="str">
+      <c r="C6" s="30" t="str">
         <f xml:space="preserve"> "tong" &amp; I6</f>
         <v>tong2</v>
       </c>
@@ -13437,19 +13700,19 @@
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="32">
         <v>53</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="25">
         <v>2</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="25">
         <v>3</v>
       </c>
     </row>
@@ -13457,7 +13720,7 @@
       <c r="B7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="31" t="str">
+      <c r="C7" s="29" t="str">
         <f t="shared" si="0"/>
         <v>tong5</v>
       </c>
@@ -13467,19 +13730,19 @@
       <c r="E7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="31">
         <v>13</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="24">
         <v>5</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="24">
         <v>2</v>
       </c>
     </row>
@@ -13487,7 +13750,7 @@
       <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="30" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -13496,19 +13759,19 @@
       <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="32">
         <v>32</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="25">
         <v>4</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="25">
         <v>7</v>
       </c>
     </row>
@@ -13516,7 +13779,7 @@
       <c r="B9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -13525,19 +13788,19 @@
       <c r="E9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="31">
         <v>121</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="24">
         <v>8</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="24">
         <v>8</v>
       </c>
     </row>
